--- a/exceldata.xlsx
+++ b/exceldata.xlsx
@@ -24,10 +24,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ghtr@cvg.com</t>
+    <t>vigneshpri026@gmail.com</t>
   </si>
   <si>
-    <t>Abcd@1234</t>
+    <t>Simple@25052017</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,6 +406,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
